--- a/old_image/communicationrequest.xlsx
+++ b/old_image/communicationrequest.xlsx
@@ -440,7 +440,7 @@
     <t>CommunicationRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the proposal or order.</t>
@@ -517,7 +517,7 @@
     <t>CommunicationRequest.priority</t>
   </si>
   <si>
-    <t>Message urgency</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>Characterizes how quickly the proposed act must be initiated. Includes concepts such as stat, urgent, routine.</t>
@@ -777,10 +777,10 @@
 </t>
   </si>
   <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The device, individual, or organization who initiated the request and has responsibility for its activation.</t>
+    <t>Who asks for the information to be shared</t>
+  </si>
+  <si>
+    <t>The device, individual, or organization who asks for the information to be shared.</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -799,7 +799,7 @@
 </t>
   </si>
   <si>
-    <t>Message recipient</t>
+    <t>Who to share the information with</t>
   </si>
   <si>
     <t>The entity (e.g. person, organization, clinical information system, device, group, or care team) which is the intended target of the communication.</t>
@@ -811,14 +811,14 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>CommunicationRequest.sender</t>
+    <t>CommunicationRequest.informationProvider</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
 </t>
   </si>
   <si>
-    <t>Message sender</t>
+    <t>Who should share the information</t>
   </si>
   <si>
     <t>The entity (e.g. person, organization, clinical information system, or device) which is to be the source of the communication.</t>
@@ -1029,7 +1029,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1049,7 +1049,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.0" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
